--- a/1 Definition/Arbeitspakete-2.xlsx
+++ b/1 Definition/Arbeitspakete-2.xlsx
@@ -507,14 +507,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -579,6 +578,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -588,12 +593,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Ausgabe" xfId="1" builtinId="21"/>
@@ -877,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,10 +906,10 @@
       <c r="F1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>39</v>
       </c>
     </row>
@@ -918,259 +917,259 @@
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="27"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>1</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <f t="shared" ref="E3:E40" si="0">C3*D3</f>
         <v>5</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <v>5</v>
       </c>
-      <c r="G3" s="52">
-        <v>18.75</v>
-      </c>
-      <c r="H3" s="52">
+      <c r="G3" s="48">
+        <v>18.75</v>
+      </c>
+      <c r="H3" s="48">
         <f>G3*F3</f>
         <v>93.75</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>0.5</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="52">
-        <v>18.75</v>
-      </c>
-      <c r="H4" s="52">
+      <c r="E4" s="15">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="48">
+        <v>18.75</v>
+      </c>
+      <c r="H4" s="48">
         <f t="shared" ref="H4:H40" si="1">G4*F4</f>
         <v>9.375</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>0.5</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F5" s="16">
-        <v>1</v>
-      </c>
-      <c r="G5" s="52">
-        <v>18.75</v>
-      </c>
-      <c r="H5" s="52">
+      <c r="E5" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1</v>
+      </c>
+      <c r="G5" s="48">
+        <v>18.75</v>
+      </c>
+      <c r="H5" s="48">
         <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>1.5</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="38">
         <v>5</v>
       </c>
-      <c r="G6" s="52">
-        <v>18.75</v>
-      </c>
-      <c r="H6" s="52">
+      <c r="G6" s="48">
+        <v>18.75</v>
+      </c>
+      <c r="H6" s="48">
         <f t="shared" si="1"/>
         <v>93.75</v>
       </c>
-      <c r="J6" s="29"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>1</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>5</v>
       </c>
-      <c r="G7" s="52">
-        <v>18.75</v>
-      </c>
-      <c r="H7" s="52">
+      <c r="G7" s="48">
+        <v>18.75</v>
+      </c>
+      <c r="H7" s="48">
         <f t="shared" si="1"/>
         <v>93.75</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
       </c>
-      <c r="E8" s="16">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F8" s="16">
-        <v>2</v>
-      </c>
-      <c r="G8" s="52">
+      <c r="E8" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F8" s="15">
+        <v>2</v>
+      </c>
+      <c r="G8" s="48">
         <v>111.25</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="48">
         <f t="shared" si="1"/>
         <v>222.5</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="A9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10">
         <v>0.5</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="E9" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F9" s="16">
-        <v>1</v>
-      </c>
-      <c r="G9" s="52">
-        <v>18.75</v>
-      </c>
-      <c r="H9" s="52">
+      <c r="E9" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+      <c r="G9" s="48">
+        <v>18.75</v>
+      </c>
+      <c r="H9" s="48">
         <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="A10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10">
         <v>0.5</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="E10" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F10" s="16">
-        <v>1</v>
-      </c>
-      <c r="G10" s="52">
-        <v>18.75</v>
-      </c>
-      <c r="H10" s="52">
+      <c r="E10" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1</v>
+      </c>
+      <c r="G10" s="48">
+        <v>18.75</v>
+      </c>
+      <c r="H10" s="48">
         <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>0.5</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="E11" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F11" s="16">
-        <v>1</v>
-      </c>
-      <c r="G11" s="52">
-        <v>18.75</v>
-      </c>
-      <c r="H11" s="52">
+      <c r="E11" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="15">
+        <v>1</v>
+      </c>
+      <c r="G11" s="48">
+        <v>18.75</v>
+      </c>
+      <c r="H11" s="48">
         <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>1.5</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="32">
         <v>9</v>
       </c>
-      <c r="G12" s="52">
-        <v>18.75</v>
-      </c>
-      <c r="H12" s="52">
+      <c r="G12" s="48">
+        <v>18.75</v>
+      </c>
+      <c r="H12" s="48">
         <f t="shared" si="1"/>
         <v>168.75</v>
       </c>
@@ -1179,51 +1178,51 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>0.5</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="16">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="52">
-        <v>18.75</v>
-      </c>
-      <c r="H13" s="52">
+      <c r="E13" s="15">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="48">
+        <v>18.75</v>
+      </c>
+      <c r="H13" s="48">
         <f t="shared" si="1"/>
         <v>9.375</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="23">
         <v>1</v>
       </c>
       <c r="D14" s="4">
         <v>3</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F14" s="46">
-        <v>1</v>
-      </c>
-      <c r="G14" s="52">
-        <v>18.75</v>
-      </c>
-      <c r="H14" s="52">
+      <c r="F14" s="45">
+        <v>1</v>
+      </c>
+      <c r="G14" s="48">
+        <v>18.75</v>
+      </c>
+      <c r="H14" s="48">
         <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
@@ -1232,272 +1231,272 @@
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="17">
+      <c r="B16" s="53"/>
+      <c r="C16" s="16">
         <v>0.5</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
       </c>
-      <c r="E16" s="20">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="G16" s="52">
-        <v>18.75</v>
-      </c>
-      <c r="H16" s="52">
+      <c r="E16" s="19">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="48">
+        <v>18.75</v>
+      </c>
+      <c r="H16" s="48">
         <f t="shared" si="1"/>
         <v>9.375</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="18">
+      <c r="B17" s="53"/>
+      <c r="C17" s="17">
         <v>0.5</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="16">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="F17" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="G17" s="52">
-        <v>18.75</v>
-      </c>
-      <c r="H17" s="52">
+      <c r="E17" s="15">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="48">
+        <v>18.75</v>
+      </c>
+      <c r="H17" s="48">
         <f t="shared" si="1"/>
         <v>9.375</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="18">
+      <c r="B18" s="53"/>
+      <c r="C18" s="17">
         <v>1</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
       </c>
-      <c r="E18" s="16">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F18" s="33">
+      <c r="E18" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F18" s="32">
         <v>3</v>
       </c>
-      <c r="G18" s="52">
-        <v>18.75</v>
-      </c>
-      <c r="H18" s="52">
+      <c r="G18" s="48">
+        <v>18.75</v>
+      </c>
+      <c r="H18" s="48">
         <f t="shared" si="1"/>
         <v>56.25</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="18">
+      <c r="B19" s="53"/>
+      <c r="C19" s="17">
         <v>0.5</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="16">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="F19" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="52">
-        <v>18.75</v>
-      </c>
-      <c r="H19" s="52">
+      <c r="E19" s="15">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="48">
+        <v>18.75</v>
+      </c>
+      <c r="H19" s="48">
         <f t="shared" si="1"/>
         <v>9.375</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="18">
+      <c r="B20" s="53"/>
+      <c r="C20" s="17">
         <v>3</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="32">
         <v>10</v>
       </c>
-      <c r="G20" s="52">
-        <v>18.75</v>
-      </c>
-      <c r="H20" s="52">
+      <c r="G20" s="48">
+        <v>18.75</v>
+      </c>
+      <c r="H20" s="48">
         <f t="shared" si="1"/>
         <v>187.5</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="18">
+      <c r="B21" s="53"/>
+      <c r="C21" s="17">
         <v>1</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
       </c>
-      <c r="E21" s="16">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F21" s="16">
-        <v>2</v>
-      </c>
-      <c r="G21" s="52">
-        <v>18.75</v>
-      </c>
-      <c r="H21" s="52">
+      <c r="E21" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F21" s="15">
+        <v>2</v>
+      </c>
+      <c r="G21" s="48">
+        <v>18.75</v>
+      </c>
+      <c r="H21" s="48">
         <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="18">
+      <c r="B22" s="53"/>
+      <c r="C22" s="17">
         <v>1.5</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="15">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="15">
         <v>1.5</v>
       </c>
-      <c r="G22" s="52">
-        <v>18.75</v>
-      </c>
-      <c r="H22" s="52">
+      <c r="G22" s="48">
+        <v>18.75</v>
+      </c>
+      <c r="H22" s="48">
         <f t="shared" si="1"/>
         <v>28.125</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="18">
+      <c r="B23" s="53"/>
+      <c r="C23" s="17">
         <v>2</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="15">
         <v>4</v>
       </c>
-      <c r="G23" s="52">
-        <v>18.75</v>
-      </c>
-      <c r="H23" s="52">
+      <c r="G23" s="48">
+        <v>18.75</v>
+      </c>
+      <c r="H23" s="48">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="18">
+      <c r="B24" s="53"/>
+      <c r="C24" s="17">
         <v>1.5</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="32">
         <v>5</v>
       </c>
-      <c r="G24" s="52">
-        <v>18.75</v>
-      </c>
-      <c r="H24" s="52">
+      <c r="G24" s="48">
+        <v>18.75</v>
+      </c>
+      <c r="H24" s="48">
         <f t="shared" si="1"/>
         <v>93.75</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="26">
+      <c r="B25" s="53"/>
+      <c r="C25" s="25">
         <v>1.5</v>
       </c>
       <c r="D25" s="4">
         <v>2</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="20">
         <v>3</v>
       </c>
-      <c r="G25" s="52">
-        <v>18.75</v>
-      </c>
-      <c r="H25" s="52">
+      <c r="G25" s="48">
+        <v>18.75</v>
+      </c>
+      <c r="H25" s="48">
         <f t="shared" si="1"/>
         <v>56.25</v>
       </c>
@@ -1506,114 +1505,114 @@
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="17">
+      <c r="B27" s="53"/>
+      <c r="C27" s="16">
         <v>3</v>
       </c>
       <c r="D27" s="2">
         <v>4</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="19">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="19">
         <v>12</v>
       </c>
-      <c r="G27" s="52">
-        <v>18.75</v>
-      </c>
-      <c r="H27" s="52">
+      <c r="G27" s="48">
+        <v>18.75</v>
+      </c>
+      <c r="H27" s="48">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="18">
+      <c r="B28" s="53"/>
+      <c r="C28" s="17">
         <v>4</v>
       </c>
       <c r="D28" s="1">
         <v>4</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="15">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F28" s="33">
+      <c r="F28" s="32">
         <v>18</v>
       </c>
-      <c r="G28" s="52">
-        <v>18.75</v>
-      </c>
-      <c r="H28" s="52">
+      <c r="G28" s="48">
+        <v>18.75</v>
+      </c>
+      <c r="H28" s="48">
         <f t="shared" si="1"/>
         <v>337.5</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="26">
+      <c r="B29" s="53"/>
+      <c r="C29" s="25">
         <v>7</v>
       </c>
       <c r="D29" s="4">
         <v>5</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="20">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="20">
         <v>35</v>
       </c>
-      <c r="G29" s="52">
-        <v>18.75</v>
-      </c>
-      <c r="H29" s="52">
+      <c r="G29" s="48">
+        <v>18.75</v>
+      </c>
+      <c r="H29" s="48">
         <f t="shared" si="1"/>
         <v>656.25</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40" t="s">
+    <row r="30" spans="1:8" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="41">
-        <v>2</v>
-      </c>
-      <c r="D30" s="42">
+      <c r="B30" s="43"/>
+      <c r="C30" s="40">
+        <v>2</v>
+      </c>
+      <c r="D30" s="41">
         <v>3</v>
       </c>
-      <c r="E30" s="43">
+      <c r="E30" s="42">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F30" s="45">
+      <c r="F30" s="44">
         <v>3</v>
       </c>
-      <c r="G30" s="52">
-        <v>18.75</v>
-      </c>
-      <c r="H30" s="52">
+      <c r="G30" s="48">
+        <v>18.75</v>
+      </c>
+      <c r="H30" s="48">
         <f>G30*F30</f>
         <v>56.25</v>
       </c>
@@ -1622,86 +1621,86 @@
       <c r="A31" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="17">
         <v>3</v>
       </c>
       <c r="D32" s="1">
         <v>2</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="15">
         <v>6</v>
       </c>
-      <c r="G32" s="52">
-        <v>18.75</v>
-      </c>
-      <c r="H32" s="52">
+      <c r="G32" s="48">
+        <v>18.75</v>
+      </c>
+      <c r="H32" s="48">
         <f t="shared" si="1"/>
         <v>112.5</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="17">
         <v>1.5</v>
       </c>
       <c r="D33" s="1">
         <v>2</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="15">
         <v>3</v>
       </c>
-      <c r="G33" s="52">
+      <c r="G33" s="48">
         <v>111.25</v>
       </c>
-      <c r="H33" s="52">
+      <c r="H33" s="48">
         <f t="shared" si="1"/>
         <v>333.75</v>
       </c>
-      <c r="I33" s="32"/>
+      <c r="I33" s="31"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="17">
         <v>1</v>
       </c>
       <c r="D34" s="1">
         <v>5</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="15">
         <v>5</v>
       </c>
-      <c r="G34" s="52">
-        <v>18.75</v>
-      </c>
-      <c r="H34" s="52">
+      <c r="G34" s="48">
+        <v>18.75</v>
+      </c>
+      <c r="H34" s="48">
         <f t="shared" si="1"/>
         <v>93.75</v>
       </c>
@@ -1710,30 +1709,30 @@
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="18">
         <v>1.5</v>
       </c>
       <c r="D35" s="1">
         <v>5</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="20">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="15">
         <v>0</v>
       </c>
-      <c r="G35" s="54">
+      <c r="G35" s="50">
         <v>0</v>
       </c>
-      <c r="H35" s="52"/>
+      <c r="H35" s="48"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C36">
         <f>SUM(C3:C35)</f>
         <v>46</v>
       </c>
-      <c r="E36" s="38">
+      <c r="E36" s="37">
         <f>SUM(E3:E35)</f>
         <v>144</v>
       </c>
@@ -1741,33 +1740,33 @@
         <f>SUM(F3:F35)</f>
         <v>144</v>
       </c>
-      <c r="H36" s="32"/>
+      <c r="H36" s="31"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="37"/>
-      <c r="H37" s="32"/>
-    </row>
-    <row r="38" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="E37" s="30"/>
+      <c r="F37" s="36"/>
+      <c r="H37" s="31"/>
+    </row>
+    <row r="38" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="37"/>
-      <c r="H38" s="50">
+      <c r="E38" s="30"/>
+      <c r="F38" s="36"/>
+      <c r="H38" s="46">
         <v>3000</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
+    <row r="39" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="31"/>
-      <c r="F39" s="37"/>
-      <c r="H39" s="50">
+      <c r="E39" s="30"/>
+      <c r="F39" s="36"/>
+      <c r="H39" s="46">
         <v>1195</v>
       </c>
     </row>
@@ -1775,38 +1774,38 @@
       <c r="A40" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="36">
+      <c r="C40" s="35">
         <v>0.5</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" s="31">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="F40" s="31">
+      <c r="E40" s="30">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F40" s="30">
         <v>0.5</v>
       </c>
       <c r="G40">
         <v>80</v>
       </c>
-      <c r="H40" s="52">
+      <c r="H40" s="48">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="53">
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="49">
         <f>SUM(H3:H35)</f>
         <v>3162.5</v>
       </c>
@@ -1815,40 +1814,40 @@
       <c r="A42" t="s">
         <v>43</v>
       </c>
-      <c r="H42" s="52">
+      <c r="H42" s="48">
         <f>H41*0.07</f>
         <v>221.37500000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H43" s="52"/>
+    <row r="43" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="48"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="51">
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="47">
         <f>SUM(H38:H42)</f>
         <v>7618.875</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="55">
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="51">
         <f>H44 *1.19</f>
         <v>9066.4612500000003</v>
       </c>
